--- a/tables/crosstab/crosstab_safety_time/physically VS visited.xlsx
+++ b/tables/crosstab/crosstab_safety_time/physically VS visited.xlsx
@@ -468,40 +468,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H2">
-        <v>8.07</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J2">
-        <v>14.18</v>
+        <v>14.25</v>
       </c>
       <c r="K2">
-        <v>5.87</v>
+        <v>5.5</v>
       </c>
       <c r="L2">
-        <v>16.38</v>
+        <v>16.25</v>
       </c>
       <c r="M2">
-        <v>46.21</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -518,31 +518,31 @@
         <v>53</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>84</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H3">
-        <v>14.18</v>
+        <v>14</v>
       </c>
       <c r="I3">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <v>12.96</v>
+        <v>13.25</v>
       </c>
       <c r="K3">
-        <v>5.62</v>
+        <v>5.5</v>
       </c>
       <c r="L3">
-        <v>20.54</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>53.79</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -550,37 +550,37 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G4">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>22.25</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J4">
-        <v>27.14</v>
+        <v>27.5</v>
       </c>
       <c r="K4">
-        <v>11.49</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>36.92</v>
+        <v>37.25</v>
       </c>
       <c r="M4">
         <v>100</v>
